--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1822.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1822.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.486404768402896</v>
+        <v>0.9390297532081604</v>
       </c>
       <c r="B1">
-        <v>2.333604099231027</v>
+        <v>1.173056244850159</v>
       </c>
       <c r="C1">
-        <v>2.705560904686993</v>
+        <v>5.240593433380127</v>
       </c>
       <c r="D1">
-        <v>3.132543066212123</v>
+        <v>1.626090288162231</v>
       </c>
       <c r="E1">
-        <v>2.125974275901</v>
+        <v>0.95164555311203</v>
       </c>
     </row>
   </sheetData>
